--- a/docs/Workflow.xlsx
+++ b/docs/Workflow.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Import data from .in file</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Should also be able to import CSR formats</t>
   </si>
   <si>
+    <t>Convert to CSR</t>
+  </si>
+  <si>
     <t>Test for 0s on diagonal</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>If no CM Args, should prompt user for filename</t>
+  </si>
+  <si>
+    <t>3 numpy arrays:</t>
   </si>
   <si>
     <t>val</t>
@@ -260,6 +266,42 @@
   </si>
   <si>
     <t>Prompt user if not defined at command line</t>
+  </si>
+  <si>
+    <t>Use ljust(spacing) to get columns lined up</t>
+  </si>
+  <si>
+    <t>Get user inputs:</t>
+  </si>
+  <si>
+    <t>Maturity Date T</t>
+  </si>
+  <si>
+    <t>Strike Price X</t>
+  </si>
+  <si>
+    <t>Define BSM parameters</t>
+  </si>
+  <si>
+    <t>r (0.01 - 0.03)</t>
+  </si>
+  <si>
+    <t>theta (0.2 - 0.4)</t>
+  </si>
+  <si>
+    <t>Build Matrix</t>
+  </si>
+  <si>
+    <t>Define grid spacing in each dimension (m,k)</t>
+  </si>
+  <si>
+    <t>Define number of steps in each dimension (N)</t>
+  </si>
+  <si>
+    <t>Machine Epsilon?</t>
+  </si>
+  <si>
+    <t>Calculate / compare norms</t>
   </si>
 </sst>
 </file>
@@ -570,8 +612,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -581,7 +623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="762000" y="5918200"/>
-          <a:ext cx="6235700" cy="4965700"/>
+          <a:ext cx="6235700" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,6 +854,513 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12293600" y="6083300"/>
+          <a:ext cx="5740400" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800"/>
+            <a:t>Output Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="381000"/>
+          <a:ext cx="6235700" cy="4965700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1003300" y="558800"/>
+          <a:ext cx="5905500" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800"/>
+            <a:t>Build</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0"/>
+            <a:t> Matrix</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365388</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3467100"/>
+          <a:ext cx="6143888" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Down Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="5499100"/>
+          <a:ext cx="1079500" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="6515100"/>
+          <a:ext cx="6235700" cy="4965700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1003300" y="6692900"/>
+          <a:ext cx="5905500" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800"/>
+            <a:t>Solve Matrix</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Down Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7169150" y="8229600"/>
+          <a:ext cx="1079500" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="6515100"/>
+          <a:ext cx="6235700" cy="4025900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325350" y="6692900"/>
           <a:ext cx="5740400" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1114,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:Q53"/>
+  <dimension ref="B11:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -1135,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -1143,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -1151,226 +1700,239 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1383,12 +1945,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B8:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Workflow.xlsx
+++ b/docs/Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SOR" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
